--- a/Template/PersonnelInfo.xlsx
+++ b/Template/PersonnelInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="1785" windowWidth="27270" windowHeight="11280" activeTab="1"/>
+    <workbookView xWindow="2055" yWindow="1785" windowWidth="27270" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>員工編號</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -261,231 +261,13 @@
   <si>
     <t>身分字號</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>YungHong2</t>
-  </si>
-  <si>
-    <t>002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/03/04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0987654321</t>
-  </si>
-  <si>
-    <t>0987654321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ggc@com.tw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0970898131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父親</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>052</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00526555467890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>519518</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>530125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A141212512</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YungHong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1988/03/04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1979/04/04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcdghh@com.tw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0987654321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Darius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00526551415160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父親</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1965/11/23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H124152123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>母親</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1963/10/21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J223414114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1977/01/31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E231313414</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T123123444</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -529,14 +311,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -555,11 +329,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -575,16 +348,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -886,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM4"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1126,261 +894,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI4" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ4" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM4" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="S3" r:id="rId1"/>
-    <hyperlink ref="S4" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1397,18 +923,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1436,84 +962,6 @@
       </c>
       <c r="H2" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Template/PersonnelInfo.xlsx
+++ b/Template/PersonnelInfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>員工編號</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -261,6 +261,33 @@
   <si>
     <t>身分字號</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合約別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:正式
+02:季節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提繳身分別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:強制提繳對象
+2:自願提繳對象
+3:雇主自願提繳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配偶、2.父母
+3.子女、4.祖父母
+5.孫子女、6.外祖父母 
+7.外孫子女、8.曾祖父母
+9.外曾祖父母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -332,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -350,6 +377,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -654,49 +684,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="6" customWidth="1"/>
+    <col min="12" max="17" width="20" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="40.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="22.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.75" style="6" customWidth="1"/>
+    <col min="35" max="35" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="66" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
@@ -719,8 +752,8 @@
         <v>55</v>
       </c>
       <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
-        <v>47</v>
+      <c r="K1" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>47</v>
@@ -737,7 +770,9 @@
       <c r="P1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
@@ -748,34 +783,38 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -807,90 +846,96 @@
         <v>6</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -905,15 +950,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.875" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6"/>
+    <col min="3" max="3" width="24.875" style="6" customWidth="1"/>
     <col min="4" max="4" width="22.75" style="6" customWidth="1"/>
     <col min="5" max="5" width="16.125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="6" customWidth="1"/>
@@ -922,10 +967,12 @@
     <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="C1" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="D1" s="7" t="s">
         <v>47</v>
       </c>
